--- a/posts.xlsx
+++ b/posts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miqueias\Desktop\Projetos\IntegracaoChatGpt_Wordpress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021CDBA3-36E3-4E2D-9665-86274AFFFE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFCB0C3-CB1E-4BB8-8495-9712DC9DF249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Keyword</t>
   </si>
@@ -143,13 +143,19 @@
   </si>
   <si>
     <t>Dicas Essenciais para Viajar com Orçamento Limitado</t>
+  </si>
+  <si>
+    <t>https://guiadicas.net/wp-json/wp/v2//wp-json/wp/v2/posts/2561</t>
+  </si>
+  <si>
+    <t>10 Destinos Exóticos para sua Próxima Aventura</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,12 +167,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FFECECEC"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -204,12 +204,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,13 +514,10 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="76.5859375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
@@ -719,10 +715,13 @@
       <c r="A25" t="s">
         <v>40</v>
       </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="2" t="s">
-        <v>40</v>
+      <c r="A26" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
